--- a/vba/excel/AddIns/UserDefFuncs.bas/ショートカットキー設定_設計資料.xlsx
+++ b/vba/excel/AddIns/UserDefFuncs.bas/ショートカットキー設定_設計資料.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vba\excel\AddIns\UserDefFuncs.bas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD5C78-12AB-4951-B6F4-05361F8A357F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC919621-B8B4-42B7-B64E-9E5D381C4278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21720" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="関数コールツリー" sheetId="52" r:id="rId1"/>
+    <sheet name="関数コールツリー_org" sheetId="52" r:id="rId1"/>
+    <sheet name="CallTree(アクティブセルコメント)" sheetId="54" r:id="rId2"/>
+    <sheet name="CallTree(マクロショートカットキー)" sheetId="53" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" calcMode="manual"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>UpdateShtcutSetting</t>
   </si>
@@ -116,6 +118,209 @@
   </si>
   <si>
     <t>UpdateShortcutKeySettings("Update")▲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dMacroShrtctKeys追加</t>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dMacroShrtctKeysからonkey&amp;辞書クリア</t>
+    <rPh sb="24" eb="26">
+      <t>ジショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dMacroShrtctKeysから""でonkey&amp;辞書クリア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ConstructMacroShrtctKeys</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EnableMacroShrtctKeys</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DisableMacroShrtctKeys</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マクロショートカットキー全て有効化</t>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マクロショートカットキー全て無効化</t>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブセルコメントのみ表示</t>
+  </si>
+  <si>
+    <t>clSetting.SearchWithKey</t>
+  </si>
+  <si>
+    <t>clSetting.Update</t>
+  </si>
+  <si>
+    <t>UpdateShortcutKeySettings</t>
+  </si>
+  <si>
+    <t>呼び元無し</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VisibleCommentOnlyActiveCell</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他セルコメントを“非表示”にしてアクティブセルコメントを“表示”にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下移動後、他セルコメントを“非表示”にしてアクティブセルコメントを“表示”にする。</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上移動後、他セルコメントを“非表示”にしてアクティブセルコメントを“表示”にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VisibleCommentOnlyActiveCell▲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>右移動後、他セルコメントを“非表示”にしてアクティブセルコメントを“表示”にする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左移動後、他セルコメントを“非表示”にしてアクティブセルコメントを“表示”にする。</t>
+  </si>
+  <si>
+    <t>アクティブセルコメント設定を切り替える</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>呼び元無し(ショートカットキー^+{F11}から起動される)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>呼び元無し(ショートカットキー{DOWN/UP/RIGHT/LEFT}から起動される)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ConstructMacroShrtctKeys▲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Macros.bas</t>
+  </si>
+  <si>
+    <t>アクティブセルコメント設定切り替え</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブセルコメントのみ表示して下移動</t>
+  </si>
+  <si>
+    <t>アクティブセルコメントのみ表示して左移動</t>
+    <rPh sb="17" eb="18">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブセルコメントのみ表示して右移動</t>
+    <rPh sb="17" eb="18">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクティブセルコメントのみ表示して上移動</t>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -123,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -148,6 +353,20 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -179,11 +398,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -529,13 +754,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="1.875" style="1"/>
+    <col min="1" max="56" width="1.875" style="1"/>
+    <col min="57" max="57" width="1.875" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="1.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,4 +966,281 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05AF69A-8D4B-4BC3-A49D-02766BA7B53B}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:AE22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" s="3" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBA40A4-F9EE-4AAD-8DC1-239C9AD26615}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C2:Y10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:25" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" s="2" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" s="3" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" s="3" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" s="2" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" s="3" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" s="3" customFormat="1" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" ht="10.8" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>